--- a/Analyse en ontwerp/Requirements Analyse/RequirementsLaserQuest.xlsx
+++ b/Analyse en ontwerp/Requirements Analyse/RequirementsLaserQuest.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hogeschoolutrecht.sharepoint.com/sites/tekteamone/Gedeelde  documenten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="385" documentId="ABB043D6B2BDB79075B635538AF9284401033255" xr6:coauthVersionLast="10" xr6:coauthVersionMax="10" xr10:uidLastSave="{B8572322-FEFB-4D72-8383-0160067F4481}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="7_{A655D982-98FC-4586-9121-1BA86D319FC6}" xr6:coauthVersionLast="10" xr6:coauthVersionMax="10" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="-9795" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="171026" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>Requirements (zo specifiek mogelijk)</t>
   </si>
@@ -28,120 +36,124 @@
     <t xml:space="preserve">MoSCoW status </t>
   </si>
   <si>
-    <t>Functionele eisen.</t>
-  </si>
-  <si>
-    <t>IR-ontvanger 2x 36KHz</t>
+    <t>Het ontvangen van een commando zoals gespecificeerd is in het 'IR protocol' document</t>
   </si>
   <si>
     <t>Must have</t>
   </si>
   <si>
-    <t>IR-zender 2x 36KHz 16bits patroon</t>
-  </si>
-  <si>
-    <t>registratie treffers (Alleen bij getroffen speler wordt de registratie gedaan dmv weapon ID.)</t>
-  </si>
-  <si>
-    <t>Registratie voor hoeveelheid schoten.(Gebeurt bij de schietende speler.)</t>
+    <t>Het ontvangen van een 36KHz signaal</t>
+  </si>
+  <si>
+    <t>Het verzenden van een 36KHz signaal</t>
+  </si>
+  <si>
+    <t>De registratie van het aantal treffers (Dit gebeurt bij geraakte speler)</t>
+  </si>
+  <si>
+    <t>Het decoderen van een 16bits commando</t>
+  </si>
+  <si>
+    <t>Het versturen van een startsignaal door de spelleidersysteem</t>
+  </si>
+  <si>
+    <t>De arduino kan een ID krijgen door middel van een keypad</t>
+  </si>
+  <si>
+    <t>Schermweergave voor de commando's die ingevoerd worden zoals gespecificeerd in 'Casus' document</t>
+  </si>
+  <si>
+    <t>Het is mogelijk de gegevens die op de Arduino staan aangaande het spel uit te lezen op een computer door middel van een USB verbinding</t>
+  </si>
+  <si>
+    <t>Er kan een wapen gekozen worden op basis van schade per kogel</t>
+  </si>
+  <si>
+    <t>Audiosignaal van 3 seconden op 1000Hz bij start</t>
+  </si>
+  <si>
+    <t>Audiosignaal van 3 seconden op 1000Hz bij einde</t>
+  </si>
+  <si>
+    <t>Foutmeldingen worden gemeld aan de gebruiker en aan de admin</t>
+  </si>
+  <si>
+    <t>De registratie van het aantal schoten (Gebeurt bij de schietende speler)</t>
   </si>
   <si>
     <t>Should have</t>
   </si>
   <si>
-    <t>Algoritme voor gemiste schoten. (Dit gebeurd na de game op de computer waar de score binnen komt.)</t>
+    <t>Algoritme voor gemiste schoten (Dit gebeurt na de game op de computer waar de score binnen komt)</t>
+  </si>
+  <si>
+    <t>Algoritme voor de nauwkeurigheid van een schot (Dit gebeurd na de game op de computer waar de score binnen komt)</t>
+  </si>
+  <si>
+    <t>Tijdens het spel een schermweergave voor een overloadbalk die bij het overhalen van de trigger oploopt en op tijdbasis afloopt, zodra deze gevuld is, is het wapen buiten werking totdat de overloadbalk weer leeg is</t>
+  </si>
+  <si>
+    <t>Meerdere gamemodussen (denk aan: deathmatch, team deathmatch, one hit kill, assasination)</t>
+  </si>
+  <si>
+    <t>Er kunnen verschillende geweren gekozen worden op basis van verschillende snelheid van schieten, schietafstand en schade per kogel.</t>
+  </si>
+  <si>
+    <t>Er is een lichtsignaal wanneer de speler wordt geraakt</t>
+  </si>
+  <si>
+    <t>Bij en foutmelding zal een oranje LED gaan knipperen op het geweer</t>
+  </si>
+  <si>
+    <t>Na invoer van spelernummer door de spelleidersysteem via de keypad voorafgaand aan het spel kan er een teamnummer ingevoerd worden voor alternatieve gamemodussen</t>
   </si>
   <si>
     <t>Could have</t>
   </si>
   <si>
-    <t>Algoritme voor accuracy. (Dit gebeurd na de game op de computer waar de score binnen komt.)</t>
-  </si>
-  <si>
-    <t>Gesynchroniseerde start</t>
-  </si>
-  <si>
-    <t>De spelleider geeft de spelers een spelernummer via de keypad voorafgaand aan het spel</t>
-  </si>
-  <si>
-    <t>Na invoer van spelernummer door de spelleider via de keypad voorafgaand aan het spel kan er een teamnummer voor 'team-deathmatch'-gamemodus ingevoerd worden</t>
-  </si>
-  <si>
-    <t>Zonder invoer van teamnummer door de spelleider via de keypad voorafgaand aan het spel wordt er automatisch 'deathmatch'-gamemodus gestart</t>
-  </si>
-  <si>
-    <t>HP-points</t>
-  </si>
-  <si>
-    <t>Een bepaalde hoeveelheid levens, afhankelijk van de gamemode.</t>
+    <t>Zonder invoer van teamnummer door de spelleidersysteem via de keypad voorafgaand aan het spel wordt er automatisch 'deathmatch'-gamemodus gestart</t>
+  </si>
+  <si>
+    <t>Het aanwezig zijn van hitpoints, op deze manier komt de mogelijkheid om 'verwond' te zijn in het spel</t>
+  </si>
+  <si>
+    <t>Tijdens het spel een schermweergave voor de hoeveelheid hitpoints</t>
+  </si>
+  <si>
+    <t>Tijdens het spel een schermweergave voor de resterende speeltijd</t>
+  </si>
+  <si>
+    <t>In de bitstream die verzonden wordt wordt het wapen waarmee is geschoten meegegeven zodat bekend is hoeveel schade het wapen doet</t>
+  </si>
+  <si>
+    <t>WiFi module om informatie uit te kunnen wisselen tussen arduino's en een eventuele hoofdcomputer</t>
+  </si>
+  <si>
+    <t>Bij het activeren van de arduino krijgt het een ID mee</t>
+  </si>
+  <si>
+    <t>Er is een trilsignaal wanneer de speler wordt geraakt</t>
+  </si>
+  <si>
+    <t>Er brand een LED om te specificren in welk team de speler zit, het verschil zal te zien zijn door de kleur van de LED</t>
+  </si>
+  <si>
+    <t>Wanneer een speler geen hitpoints meer heeft (en dus 'dood' is) wordt dit bekend gemaakt door een piepend geluidssignaal voor 3 seconden</t>
+  </si>
+  <si>
+    <t>Specifiek ledje knippert 10 seconden bij nul HP om te specificeren dat je 10 seconden niet mag schieten.</t>
+  </si>
+  <si>
+    <t>Een vooraf  vastgestelde hoeveelheid levens, eventueel afhankelijk van de gamemode</t>
   </si>
   <si>
     <t>Would have</t>
   </si>
   <si>
-    <t>Schermweergave</t>
-  </si>
-  <si>
-    <t>Schermweergave (HP)</t>
-  </si>
-  <si>
-    <t>Schermweergave (Resterende speltijd)</t>
-  </si>
-  <si>
-    <t>Schermweergave (Powerups)</t>
-  </si>
-  <si>
-    <t>Schermweergave (Een overloadbalk die bij het overhalen van de trigger oploopt en op tijdbasis afloopt, zodra deze gevuld is wordt de overloadfunctie aangeroepen die ervoor zorgt dat het wapen buiten werking is totdat de overloadbalk weer leeg is)</t>
-  </si>
-  <si>
-    <t>Wapenselectie per speler</t>
-  </si>
-  <si>
-    <t>WapenID in IRbitstream</t>
-  </si>
-  <si>
-    <t>WiFi module</t>
-  </si>
-  <si>
-    <t>PC verbinding USB</t>
-  </si>
-  <si>
-    <t>Speltypes: deathmatch, team deathmatch, one hit kill, assasination</t>
-  </si>
-  <si>
-    <t>Mogelijkheid tot verschillende geweren. 
-Elk geweer heeft een verschillende snelheid van schieten, 
-schietafstand en schade per kogel.</t>
-  </si>
-  <si>
-    <t>lichtsignaal door middel van knipperend ledje als de speler word geraakt</t>
-  </si>
-  <si>
-    <t>trilsignaal wanneer de speler geraakt wordt</t>
-  </si>
-  <si>
-    <t>audiosignaal van 3 seconden op 1000Hz bij start</t>
-  </si>
-  <si>
-    <t>audiosignaal van 3 seconden op 100Hz bij einde</t>
-  </si>
-  <si>
-    <t>Er brand een LED om te specificren in welk team de speler zit (Rood en blauw)</t>
-  </si>
-  <si>
-    <t>Audiosignaal bij nul HP</t>
-  </si>
-  <si>
-    <t>Specifiek ledje knippert 10 seconden bij nul HP om te specificeren dat je 10 seconden niet mag schieten.</t>
-  </si>
-  <si>
-    <t>foutmeldingen worden gemeld aan de gebruiker en admin</t>
-  </si>
-  <si>
-    <t>Bij en foutmelding zal een oranje LED gaan knipperen op het geweer en de speler gevraagd worden zich te melden bij de admin</t>
-  </si>
-  <si>
-    <t>Camera die checkt of er echt op jou geschoten is, niet dat het slects wat diffuus licht is</t>
+    <t>Tijdens het spel een schermweergave voor de powerups die opgepakt zijn</t>
+  </si>
+  <si>
+    <t>Camera die checkt of er echt op jou geschoten is, niet dat het slechts wat diffuus licht is</t>
   </si>
 </sst>
 </file>
@@ -164,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,19 +185,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE36C09"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9BBB59"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,8 +207,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -218,53 +224,53 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -272,10 +278,19 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -283,45 +298,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -636,341 +650,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C34"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="92.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:2" ht="21">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B8" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
+      <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="B10" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="7" t="s">
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="27" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="B12" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="16" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
+      <c r="B16" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30">
+      <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
+      <c r="B17" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30">
+      <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
+      <c r="B18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="8" t="s">
+      <c r="B19" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30">
+      <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A18" s="4" t="s">
+      <c r="B20" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
+      <c r="B21" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1">
+      <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
+      <c r="B22" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30">
+      <c r="A23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="5" t="s">
+      <c r="B23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
+    </row>
+    <row r="24" spans="1:5" ht="30">
+      <c r="A24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4" t="s">
+      <c r="B24" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:3" ht="41.25" customHeight="1">
-      <c r="A24" s="3" t="s">
+      <c r="B25" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4" t="s">
+      <c r="B26" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="5" t="s">
+      <c r="B27" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30">
+      <c r="A28" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
+      <c r="B28" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A29" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
+      <c r="B29" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A29" s="5" t="s">
+      <c r="B30" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
+      <c r="B31" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1">
-      <c r="A31" s="3" t="s">
+      <c r="B32" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" ht="30">
+      <c r="A33" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
+      <c r="B33" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33" spans="1:3" ht="30">
-      <c r="A33" s="4" t="s">
+      <c r="B34" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="9"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="9"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sortState ref="A2:C37">
+    <sortCondition ref="B2:B37"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005482E0FAFE580A4A90AE260043697E6F" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8fb62b114feff957bfd4cb8ec2a11fe0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="15ce71b8-92b5-4d42-93e0-fad89e64317b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c03c8688e14a8719cdd4030430179e" ns2:_="">
     <xsd:import namespace="15ce71b8-92b5-4d42-93e0-fad89e64317b"/>
@@ -1118,22 +1137,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EC03CBD-7640-4B3A-A280-C89DCC8C2C0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29786DB-CC1C-466B-8A97-6FABF74EB7EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="15ce71b8-92b5-4d42-93e0-fad89e64317b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C87AFCF-834D-46B5-A653-60999E12454B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1149,28 +1177,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29786DB-CC1C-466B-8A97-6FABF74EB7EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="15ce71b8-92b5-4d42-93e0-fad89e64317b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EC03CBD-7640-4B3A-A280-C89DCC8C2C0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Analyse en ontwerp/Requirements Analyse/RequirementsLaserQuest.xlsx
+++ b/Analyse en ontwerp/Requirements Analyse/RequirementsLaserQuest.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17520"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hogeschoolutrecht.sharepoint.com/sites/tekteamone/Gedeelde  documenten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Arco/Documents/TekTeamOne/Analyse en ontwerp/Requirements Analyse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="7_{A655D982-98FC-4586-9121-1BA86D319FC6}" xr6:coauthVersionLast="10" xr6:coauthVersionMax="10" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-9795" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="21000"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>Requirements (zo specifiek mogelijk)</t>
   </si>
@@ -66,9 +65,6 @@
     <t>Het is mogelijk de gegevens die op de Arduino staan aangaande het spel uit te lezen op een computer door middel van een USB verbinding</t>
   </si>
   <si>
-    <t>Er kan een wapen gekozen worden op basis van schade per kogel</t>
-  </si>
-  <si>
     <t>Audiosignaal van 3 seconden op 1000Hz bij start</t>
   </si>
   <si>
@@ -154,13 +150,19 @@
   </si>
   <si>
     <t>Camera die checkt of er echt op jou geschoten is, niet dat het slechts wat diffuus licht is</t>
+  </si>
+  <si>
+    <t>Er kan een wapen gekozen worden op basis van schade per kogel (waarden tussen 0 en 100)</t>
+  </si>
+  <si>
+    <t>Counter die de speltijd bijhoudt en vergelijkt met de eerder ingestelde totale speltijd, wanneer deze gelijk zijn betekend dit het einde van het spel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,7 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -649,22 +651,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="92.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="92.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -672,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
@@ -680,7 +682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -688,7 +690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -696,7 +698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -704,7 +706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -712,7 +714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -720,7 +722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
@@ -728,7 +730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -736,236 +738,244 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
+      <c r="B15" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="7" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
+      <c r="B17" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30">
-      <c r="A17" s="4" t="s">
+      <c r="B18" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30">
-      <c r="A18" s="4" t="s">
+      <c r="B19" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4" t="s">
+      <c r="B20" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30">
-      <c r="A20" s="4" t="s">
+      <c r="B21" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4" t="s">
+      <c r="B22" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
-      <c r="A22" s="4" t="s">
+      <c r="B23" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30">
-      <c r="A23" s="13" t="s">
+      <c r="B24" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="16" t="s">
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="30">
-      <c r="A24" s="15" t="s">
+      <c r="B25" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="13" t="s">
+      <c r="B26" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="13" t="s">
+      <c r="B27" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="13" t="s">
+      <c r="B28" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30">
-      <c r="A28" s="13" t="s">
+      <c r="B29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A29" s="13" t="s">
+      <c r="B30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="13" t="s">
+      <c r="B31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="13" t="s">
+      <c r="B32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A32" s="13" t="s">
+      <c r="B33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="13" t="s">
+      <c r="B34" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="13" t="s">
+      <c r="B35" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="5" t="s">
+      <c r="B36" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="8" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="5" t="s">
+      <c r="B37" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1"/>
+      <c r="B38" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState ref="A2:C37">
     <sortCondition ref="B2:B37"/>
@@ -975,21 +985,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005482E0FAFE580A4A90AE260043697E6F" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8fb62b114feff957bfd4cb8ec2a11fe0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="15ce71b8-92b5-4d42-93e0-fad89e64317b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c03c8688e14a8719cdd4030430179e" ns2:_="">
     <xsd:import namespace="15ce71b8-92b5-4d42-93e0-fad89e64317b"/>
@@ -1137,31 +1132,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EC03CBD-7640-4B3A-A280-C89DCC8C2C0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29786DB-CC1C-466B-8A97-6FABF74EB7EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="15ce71b8-92b5-4d42-93e0-fad89e64317b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C87AFCF-834D-46B5-A653-60999E12454B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1177,4 +1163,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EC03CBD-7640-4B3A-A280-C89DCC8C2C0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29786DB-CC1C-466B-8A97-6FABF74EB7EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="15ce71b8-92b5-4d42-93e0-fad89e64317b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Analyse en ontwerp/Requirements Analyse/RequirementsLaserQuest.xlsx
+++ b/Analyse en ontwerp/Requirements Analyse/RequirementsLaserQuest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Arco/Documents/TekTeamOne/Analyse en ontwerp/Requirements Analyse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Arco/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="21000"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19740"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>Audiosignaal van 3 seconden op 1000Hz bij einde</t>
   </si>
   <si>
-    <t>Foutmeldingen worden gemeld aan de gebruiker en aan de admin</t>
-  </si>
-  <si>
     <t>De registratie van het aantal schoten (Gebeurt bij de schietende speler)</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>Er brand een LED om te specificren in welk team de speler zit, het verschil zal te zien zijn door de kleur van de LED</t>
   </si>
   <si>
-    <t>Wanneer een speler geen hitpoints meer heeft (en dus 'dood' is) wordt dit bekend gemaakt door een piepend geluidssignaal voor 3 seconden</t>
-  </si>
-  <si>
     <t>Specifiek ledje knippert 10 seconden bij nul HP om te specificeren dat je 10 seconden niet mag schieten.</t>
   </si>
   <si>
@@ -150,6 +144,12 @@
   </si>
   <si>
     <t>Camera die checkt of er echt op jou geschoten is, niet dat het slechts wat diffuus licht is</t>
+  </si>
+  <si>
+    <t>Foutmelding wordt weergegeven op de lasergun door middel van LED</t>
+  </si>
+  <si>
+    <t>Wanneer een speler geen hitpoints meer heeft (en dus 'dood' is) wordt dit bekend gemaakt door een geluidssignaal van 1000Hz en kan de speler het wapen 3 seconden niet gebruiken</t>
   </si>
   <si>
     <t>Er kan een wapen gekozen worden op basis van schade per kogel (waarden tussen 0 en 100)</t>
@@ -656,13 +656,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:B10"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="92.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -740,7 +741,7 @@
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>3</v>
@@ -748,7 +749,7 @@
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>3</v>
@@ -780,7 +781,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>3</v>
@@ -788,191 +789,191 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -985,6 +986,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005482E0FAFE580A4A90AE260043697E6F" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8fb62b114feff957bfd4cb8ec2a11fe0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="15ce71b8-92b5-4d42-93e0-fad89e64317b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c03c8688e14a8719cdd4030430179e" ns2:_="">
     <xsd:import namespace="15ce71b8-92b5-4d42-93e0-fad89e64317b"/>
@@ -1132,22 +1148,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EC03CBD-7640-4B3A-A280-C89DCC8C2C0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29786DB-CC1C-466B-8A97-6FABF74EB7EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="15ce71b8-92b5-4d42-93e0-fad89e64317b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C87AFCF-834D-46B5-A653-60999E12454B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1163,28 +1188,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EC03CBD-7640-4B3A-A280-C89DCC8C2C0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29786DB-CC1C-466B-8A97-6FABF74EB7EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="15ce71b8-92b5-4d42-93e0-fad89e64317b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>